--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1316,20 +1316,50 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>22-30</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1330,36 +1330,6 @@
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
